--- a/data/pca/factorExposure/factorExposure_2019-01-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-01-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.1081430766315248</v>
+        <v>0.06899693631075113</v>
       </c>
       <c r="C2">
-        <v>0.001041127689918505</v>
+        <v>-0.03439208696112443</v>
       </c>
       <c r="D2">
-        <v>0.08079797560892664</v>
+        <v>-0.01957362972502194</v>
       </c>
       <c r="E2">
-        <v>-0.0115330774935278</v>
+        <v>0.04277205025454988</v>
       </c>
       <c r="F2">
-        <v>-0.1308981943232057</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.1358311697109033</v>
+      </c>
+      <c r="G2">
+        <v>-0.05088324695077179</v>
+      </c>
+      <c r="H2">
+        <v>-0.06152762425918182</v>
+      </c>
+      <c r="I2">
+        <v>0.1080361043644449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.214588255299874</v>
+        <v>0.1580228370462947</v>
       </c>
       <c r="C3">
-        <v>0.1565388134121146</v>
+        <v>-0.1095034897184505</v>
       </c>
       <c r="D3">
-        <v>0.06707914750254337</v>
+        <v>0.001827182175216545</v>
       </c>
       <c r="E3">
-        <v>0.01211544743743265</v>
+        <v>-0.008016175561250602</v>
       </c>
       <c r="F3">
-        <v>-0.3423670062076486</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.3863675075425472</v>
+      </c>
+      <c r="G3">
+        <v>-0.2636738329842411</v>
+      </c>
+      <c r="H3">
+        <v>-0.1057554141971923</v>
+      </c>
+      <c r="I3">
+        <v>0.364585242887719</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.09463052127416803</v>
+        <v>0.07133853013491522</v>
       </c>
       <c r="C4">
-        <v>0.03684132660183897</v>
+        <v>-0.05096561832781663</v>
       </c>
       <c r="D4">
-        <v>0.05513809536378893</v>
+        <v>0.01448406271895234</v>
       </c>
       <c r="E4">
-        <v>0.03403494228102501</v>
+        <v>0.04267370458177316</v>
       </c>
       <c r="F4">
-        <v>-0.07118117443946613</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.07961823828379189</v>
+      </c>
+      <c r="G4">
+        <v>-0.02259731806993251</v>
+      </c>
+      <c r="H4">
+        <v>-0.04953328102554402</v>
+      </c>
+      <c r="I4">
+        <v>0.05285092894006546</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.02417843931163988</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.01059397649485933</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.004845758938859878</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.007668475114228836</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.006738308311473484</v>
+      </c>
+      <c r="G6">
+        <v>0.01816561285395394</v>
+      </c>
+      <c r="H6">
+        <v>0.01841518471681114</v>
+      </c>
+      <c r="I6">
+        <v>-0.003127917237798198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.04467555466662879</v>
+        <v>0.03483449517505145</v>
       </c>
       <c r="C7">
-        <v>0.0156133406665029</v>
+        <v>-0.02096345416951441</v>
       </c>
       <c r="D7">
-        <v>0.04551911709679514</v>
+        <v>0.03570034982149889</v>
       </c>
       <c r="E7">
-        <v>-0.001637503384888327</v>
+        <v>0.02836087468362548</v>
       </c>
       <c r="F7">
-        <v>-0.06053379429867446</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.0493496492704675</v>
+      </c>
+      <c r="G7">
+        <v>-0.05160543997455753</v>
+      </c>
+      <c r="H7">
+        <v>-0.002209186592093642</v>
+      </c>
+      <c r="I7">
+        <v>0.03565865160549871</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.05367190524201794</v>
+        <v>0.02614027208669959</v>
       </c>
       <c r="C8">
-        <v>0.05574153632941425</v>
+        <v>-0.05366169384695812</v>
       </c>
       <c r="D8">
-        <v>0.02965125266125446</v>
+        <v>0.01084053275584662</v>
       </c>
       <c r="E8">
-        <v>0.02802597075174665</v>
+        <v>0.01888707975043981</v>
       </c>
       <c r="F8">
-        <v>-0.06902118063375534</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.07231272678917094</v>
+      </c>
+      <c r="G8">
+        <v>-0.04172578056759994</v>
+      </c>
+      <c r="H8">
+        <v>-0.03994946002557261</v>
+      </c>
+      <c r="I8">
+        <v>0.06382060915267201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.08019863250864027</v>
+        <v>0.06010236111543457</v>
       </c>
       <c r="C9">
-        <v>0.02840969877085133</v>
+        <v>-0.04460696329560165</v>
       </c>
       <c r="D9">
-        <v>0.05473542984532711</v>
+        <v>0.01779409340472075</v>
       </c>
       <c r="E9">
-        <v>0.04695113971728984</v>
+        <v>0.03763956928454262</v>
       </c>
       <c r="F9">
-        <v>-0.05334830001995483</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.07822714543859732</v>
+      </c>
+      <c r="G9">
+        <v>-0.02192484548455678</v>
+      </c>
+      <c r="H9">
+        <v>-0.04602490905904554</v>
+      </c>
+      <c r="I9">
+        <v>0.02946295157470726</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.02633952641308181</v>
+        <v>0.03627726151170461</v>
       </c>
       <c r="C10">
-        <v>-0.155230267634616</v>
+        <v>0.1636200033352838</v>
       </c>
       <c r="D10">
-        <v>-0.05926714308235752</v>
+        <v>-0.005556504217481125</v>
       </c>
       <c r="E10">
-        <v>-0.0351474306427222</v>
+        <v>-0.0348463467310343</v>
       </c>
       <c r="F10">
-        <v>-0.07551954917051482</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.06785827780299987</v>
+      </c>
+      <c r="G10">
+        <v>-0.02186572331332425</v>
+      </c>
+      <c r="H10">
+        <v>-0.04156488839335831</v>
+      </c>
+      <c r="I10">
+        <v>0.04653435980455834</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.05955711665573889</v>
+        <v>0.04885873543596376</v>
       </c>
       <c r="C11">
-        <v>0.01853222141665942</v>
+        <v>-0.03386572418317682</v>
       </c>
       <c r="D11">
-        <v>0.01277768366316819</v>
+        <v>-0.006537149653705628</v>
       </c>
       <c r="E11">
-        <v>-0.006323644632375982</v>
+        <v>0.009655727246919795</v>
       </c>
       <c r="F11">
-        <v>-0.04309072043025049</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.03751957853780778</v>
+      </c>
+      <c r="G11">
+        <v>8.418606461323058e-06</v>
+      </c>
+      <c r="H11">
+        <v>-0.01460701615761488</v>
+      </c>
+      <c r="I11">
+        <v>0.02798574497203604</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.04790594204845813</v>
+        <v>0.0440043980598513</v>
       </c>
       <c r="C12">
-        <v>0.0204529654616556</v>
+        <v>-0.03083064885674941</v>
       </c>
       <c r="D12">
-        <v>0.008777536224438989</v>
+        <v>0.005133508659125314</v>
       </c>
       <c r="E12">
-        <v>0.01065215298154078</v>
+        <v>0.009830191322065482</v>
       </c>
       <c r="F12">
-        <v>-0.02802701329756739</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01355285875258738</v>
+      </c>
+      <c r="G12">
+        <v>-0.003075331993014832</v>
+      </c>
+      <c r="H12">
+        <v>-0.005964503433447531</v>
+      </c>
+      <c r="I12">
+        <v>0.01684708651836557</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.06184614316943791</v>
+        <v>0.04301536848284423</v>
       </c>
       <c r="C13">
-        <v>0.02791366515293769</v>
+        <v>-0.02963699113803889</v>
       </c>
       <c r="D13">
-        <v>0.02712785047695862</v>
+        <v>-0.01530477954447447</v>
       </c>
       <c r="E13">
-        <v>-0.02912745461477861</v>
+        <v>0.009055683475347498</v>
       </c>
       <c r="F13">
-        <v>-0.1082027729993414</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.1037541759490131</v>
+      </c>
+      <c r="G13">
+        <v>-0.02987513958215152</v>
+      </c>
+      <c r="H13">
+        <v>-0.03482590769880457</v>
+      </c>
+      <c r="I13">
+        <v>0.06439645271145227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.03646344788149298</v>
+        <v>0.02711659147439883</v>
       </c>
       <c r="C14">
-        <v>0.02177748455145307</v>
+        <v>-0.02421576075485851</v>
       </c>
       <c r="D14">
-        <v>0.03878830446509534</v>
+        <v>0.00515926236365475</v>
       </c>
       <c r="E14">
-        <v>0.004656041053375986</v>
+        <v>0.02851906505958735</v>
       </c>
       <c r="F14">
-        <v>-0.02036638898032049</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03611529561338171</v>
+      </c>
+      <c r="G14">
+        <v>-0.05266502864147063</v>
+      </c>
+      <c r="H14">
+        <v>-0.01919493606199777</v>
+      </c>
+      <c r="I14">
+        <v>0.01724103976709034</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.05050031477198894</v>
+        <v>0.04277490271308522</v>
       </c>
       <c r="C16">
-        <v>0.02395249239232333</v>
+        <v>-0.03589002763144734</v>
       </c>
       <c r="D16">
-        <v>0.008811619985231662</v>
+        <v>-0.0009234315742796382</v>
       </c>
       <c r="E16">
-        <v>-0.001118392852254712</v>
+        <v>0.007664079768159095</v>
       </c>
       <c r="F16">
-        <v>-0.03389712910561925</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.03363429748314048</v>
+      </c>
+      <c r="G16">
+        <v>-0.005487176554711166</v>
+      </c>
+      <c r="H16">
+        <v>-0.006415727139032435</v>
+      </c>
+      <c r="I16">
+        <v>0.02910185506248906</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.06760216632376105</v>
+        <v>0.0531897465164286</v>
       </c>
       <c r="C19">
-        <v>0.04684633897572577</v>
+        <v>-0.04707948015198495</v>
       </c>
       <c r="D19">
-        <v>0.02719514178874443</v>
+        <v>-0.003858931909373387</v>
       </c>
       <c r="E19">
-        <v>0.0004632209375588854</v>
+        <v>0.02072900707455368</v>
       </c>
       <c r="F19">
-        <v>-0.0807142114259807</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.09114570372851627</v>
+      </c>
+      <c r="G19">
+        <v>-0.05473394183566135</v>
+      </c>
+      <c r="H19">
+        <v>-0.02519976131751306</v>
+      </c>
+      <c r="I19">
+        <v>0.07032034007668062</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.03355486453497062</v>
+        <v>0.01956536595006353</v>
       </c>
       <c r="C20">
-        <v>0.03150531115764817</v>
+        <v>-0.03059056021729974</v>
       </c>
       <c r="D20">
-        <v>0.04400590805498156</v>
+        <v>0.005088777451217301</v>
       </c>
       <c r="E20">
-        <v>0.02072565530389274</v>
+        <v>0.02138821037305691</v>
       </c>
       <c r="F20">
-        <v>-0.06281222917136814</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.0630224348431216</v>
+      </c>
+      <c r="G20">
+        <v>-0.05740548591111958</v>
+      </c>
+      <c r="H20">
+        <v>-0.017177498098823</v>
+      </c>
+      <c r="I20">
+        <v>0.07597351209765364</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.03801663192391921</v>
+        <v>0.03399670307577486</v>
       </c>
       <c r="C21">
-        <v>0.03887722857882193</v>
+        <v>-0.03186858151448894</v>
       </c>
       <c r="D21">
-        <v>0.02332283782882478</v>
+        <v>0.0110506600338684</v>
       </c>
       <c r="E21">
-        <v>-0.003907279188115026</v>
+        <v>0.008267281456060668</v>
       </c>
       <c r="F21">
-        <v>-0.1016413513045492</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.08040680810874615</v>
+      </c>
+      <c r="G21">
+        <v>-0.01247143400465499</v>
+      </c>
+      <c r="H21">
+        <v>-0.04888065363159442</v>
+      </c>
+      <c r="I21">
+        <v>0.001994767558733299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.04918408045206813</v>
+        <v>0.04070071682937752</v>
       </c>
       <c r="C24">
-        <v>0.02116929043066611</v>
+        <v>-0.03104624339713509</v>
       </c>
       <c r="D24">
-        <v>0.01601502925194736</v>
+        <v>-0.0002218927398514055</v>
       </c>
       <c r="E24">
-        <v>0.004162011092853651</v>
+        <v>0.01029745815730944</v>
       </c>
       <c r="F24">
-        <v>-0.04226968937744775</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.0360602907351221</v>
+      </c>
+      <c r="G24">
+        <v>-0.0003335481149058549</v>
+      </c>
+      <c r="H24">
+        <v>-0.008882605380953141</v>
+      </c>
+      <c r="I24">
+        <v>0.02992764404266134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.05195254948867411</v>
+        <v>0.04785080235950555</v>
       </c>
       <c r="C25">
-        <v>0.01693405169811221</v>
+        <v>-0.0281929632410015</v>
       </c>
       <c r="D25">
-        <v>0.01203219315369953</v>
+        <v>-0.001051805247870074</v>
       </c>
       <c r="E25">
-        <v>0.002401769493292569</v>
+        <v>0.009186727470836712</v>
       </c>
       <c r="F25">
-        <v>-0.04023182592492755</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.04236934048259781</v>
+      </c>
+      <c r="G25">
+        <v>0.001491135600021598</v>
+      </c>
+      <c r="H25">
+        <v>-0.01366031662422164</v>
+      </c>
+      <c r="I25">
+        <v>0.02072264202809686</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.02779244501867242</v>
+        <v>0.01644210396920522</v>
       </c>
       <c r="C26">
-        <v>0.03342134296644668</v>
+        <v>-0.03159800974919894</v>
       </c>
       <c r="D26">
-        <v>0.02430946283728991</v>
+        <v>-0.004568966502344028</v>
       </c>
       <c r="E26">
-        <v>-0.01789033342144067</v>
+        <v>0.003423078024629685</v>
       </c>
       <c r="F26">
-        <v>-0.03217752631795555</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.04189077438258184</v>
+      </c>
+      <c r="G26">
+        <v>-0.03023842338035904</v>
+      </c>
+      <c r="H26">
+        <v>-0.01563569505332903</v>
+      </c>
+      <c r="I26">
+        <v>0.02815579867612678</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>-0.1190928547334893</v>
+        <v>0.07075672215567815</v>
       </c>
       <c r="C27">
-        <v>0.02043416766839537</v>
+        <v>-0.02665818109709819</v>
       </c>
       <c r="D27">
-        <v>0.04164137126588062</v>
+        <v>0.004007203971180131</v>
       </c>
       <c r="E27">
-        <v>0.02835280107757147</v>
+        <v>0.03304737372214128</v>
       </c>
       <c r="F27">
-        <v>-0.07793167688704018</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.06513192134767486</v>
+      </c>
+      <c r="G27">
+        <v>-0.0166722772161639</v>
+      </c>
+      <c r="H27">
+        <v>-0.02526095434988083</v>
+      </c>
+      <c r="I27">
+        <v>0.03797440559277154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.02692052941699655</v>
+        <v>0.05110922883518751</v>
       </c>
       <c r="C28">
-        <v>-0.2335650047260333</v>
+        <v>0.2489282911054182</v>
       </c>
       <c r="D28">
-        <v>-0.1001380498044959</v>
+        <v>7.993656092674023e-05</v>
       </c>
       <c r="E28">
-        <v>-0.03400590997131688</v>
+        <v>-0.05036355485298096</v>
       </c>
       <c r="F28">
-        <v>-0.05352740492274645</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.05741435695835729</v>
+      </c>
+      <c r="G28">
+        <v>-0.03566742539705747</v>
+      </c>
+      <c r="H28">
+        <v>-0.04670726602437862</v>
+      </c>
+      <c r="I28">
+        <v>0.0709838080153619</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.03198542798567595</v>
+        <v>0.02434285938337635</v>
       </c>
       <c r="C29">
-        <v>0.02033668297841599</v>
+        <v>-0.02187503123185971</v>
       </c>
       <c r="D29">
-        <v>0.03690035940206875</v>
+        <v>0.008541416380516462</v>
       </c>
       <c r="E29">
-        <v>0.01698535136521558</v>
+        <v>0.02998153642169263</v>
       </c>
       <c r="F29">
-        <v>-0.01982379779573804</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.03289585817151847</v>
+      </c>
+      <c r="G29">
+        <v>-0.05226014701360507</v>
+      </c>
+      <c r="H29">
+        <v>-0.02223619640351084</v>
+      </c>
+      <c r="I29">
+        <v>0.002135225094809586</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.1152856940334696</v>
+        <v>0.08964466673826159</v>
       </c>
       <c r="C30">
-        <v>0.02099898710323023</v>
+        <v>-0.052079681776979</v>
       </c>
       <c r="D30">
-        <v>0.04718376539170145</v>
+        <v>-0.03875415494402212</v>
       </c>
       <c r="E30">
-        <v>-0.003691176535570698</v>
+        <v>0.03432659499038344</v>
       </c>
       <c r="F30">
-        <v>-0.1046379471317373</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.1056772020955323</v>
+      </c>
+      <c r="G30">
+        <v>-0.01003969053431204</v>
+      </c>
+      <c r="H30">
+        <v>0.006281020865868881</v>
+      </c>
+      <c r="I30">
+        <v>0.024133418451759</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.06939796383840308</v>
+        <v>0.06250006802332717</v>
       </c>
       <c r="C31">
-        <v>0.01472956867014158</v>
+        <v>-0.02357098387931501</v>
       </c>
       <c r="D31">
-        <v>0.03076168899997992</v>
+        <v>-0.01015007692045414</v>
       </c>
       <c r="E31">
-        <v>-0.03223124507484125</v>
+        <v>0.02462843081503862</v>
       </c>
       <c r="F31">
-        <v>0.03563407140008451</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.005452966942645051</v>
+      </c>
+      <c r="G31">
+        <v>-0.04153517724654525</v>
+      </c>
+      <c r="H31">
+        <v>-0.03926440533910244</v>
+      </c>
+      <c r="I31">
+        <v>0.0113172466178827</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.0701495864232055</v>
+        <v>0.04262272692421855</v>
       </c>
       <c r="C32">
-        <v>0.03867188606914957</v>
+        <v>-0.04766989528669384</v>
       </c>
       <c r="D32">
-        <v>0.03849964711098612</v>
+        <v>0.01501349357789331</v>
       </c>
       <c r="E32">
-        <v>0.01588533131246351</v>
+        <v>0.03512544608905166</v>
       </c>
       <c r="F32">
-        <v>-0.09243583080397774</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.08277828696851353</v>
+      </c>
+      <c r="G32">
+        <v>-0.03255940387382879</v>
+      </c>
+      <c r="H32">
+        <v>-0.03042107599791637</v>
+      </c>
+      <c r="I32">
+        <v>0.0530313240866224</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.06993316373857443</v>
+        <v>0.05505661948094802</v>
       </c>
       <c r="C33">
-        <v>0.05554189935253472</v>
+        <v>-0.05635363526217309</v>
       </c>
       <c r="D33">
-        <v>0.04195825207174036</v>
+        <v>-0.01994249184492902</v>
       </c>
       <c r="E33">
-        <v>-0.01109202825332005</v>
+        <v>0.01293261807212189</v>
       </c>
       <c r="F33">
-        <v>-0.06610930983626427</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.07370509405625703</v>
+      </c>
+      <c r="G33">
+        <v>-0.03821212887127189</v>
+      </c>
+      <c r="H33">
+        <v>-0.04082480788136048</v>
+      </c>
+      <c r="I33">
+        <v>0.03032242097925151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.05042149283808117</v>
+        <v>0.04309802539217657</v>
       </c>
       <c r="C34">
-        <v>0.02080839910915278</v>
+        <v>-0.03578183447609672</v>
       </c>
       <c r="D34">
-        <v>0.0182090305537858</v>
+        <v>0.003755564224726234</v>
       </c>
       <c r="E34">
-        <v>0.003260276279627586</v>
+        <v>0.01666864495508432</v>
       </c>
       <c r="F34">
-        <v>-0.02815779186473353</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.03269391743006482</v>
+      </c>
+      <c r="G34">
+        <v>-0.006194443061985534</v>
+      </c>
+      <c r="H34">
+        <v>-0.01015581753648493</v>
+      </c>
+      <c r="I34">
+        <v>0.02517300058454303</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.01810189944978609</v>
+        <v>0.01549211013265171</v>
       </c>
       <c r="C36">
-        <v>0.00378241534225121</v>
+        <v>-0.006340365579905418</v>
       </c>
       <c r="D36">
-        <v>0.01278810555366984</v>
+        <v>0.004260471753261216</v>
       </c>
       <c r="E36">
-        <v>0.005693613626941066</v>
+        <v>0.009679484936940312</v>
       </c>
       <c r="F36">
-        <v>-0.01692947209652345</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.02469670470889344</v>
+      </c>
+      <c r="G36">
+        <v>-0.03492360425223635</v>
+      </c>
+      <c r="H36">
+        <v>-0.02319198452651252</v>
+      </c>
+      <c r="I36">
+        <v>-0.007655446871651784</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.0433038335881081</v>
+        <v>0.0354361724593275</v>
       </c>
       <c r="C38">
-        <v>0.01163058932903031</v>
+        <v>-0.01516040720892772</v>
       </c>
       <c r="D38">
-        <v>0.01627739759674764</v>
+        <v>0.003761758838609241</v>
       </c>
       <c r="E38">
-        <v>0.01910180968337176</v>
+        <v>0.009940865395082155</v>
       </c>
       <c r="F38">
-        <v>-0.02251374303495678</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.04953053787003506</v>
+      </c>
+      <c r="G38">
+        <v>-0.01995832799862965</v>
+      </c>
+      <c r="H38">
+        <v>-0.0253888804176723</v>
+      </c>
+      <c r="I38">
+        <v>-0.009764385602275353</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.0714233415366626</v>
+        <v>0.05371133897365667</v>
       </c>
       <c r="C39">
-        <v>0.02140497311668741</v>
+        <v>-0.04821989173637104</v>
       </c>
       <c r="D39">
-        <v>0.02473796539517048</v>
+        <v>-0.006325165033386005</v>
       </c>
       <c r="E39">
-        <v>-0.01305150110708007</v>
+        <v>0.018600356084625</v>
       </c>
       <c r="F39">
-        <v>-0.03595545539431022</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.05432976255777633</v>
+      </c>
+      <c r="G39">
+        <v>0.005612400078183049</v>
+      </c>
+      <c r="H39">
+        <v>-0.02136105814383338</v>
+      </c>
+      <c r="I39">
+        <v>0.00796391300490131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.075475295492701</v>
+        <v>0.05652019393140972</v>
       </c>
       <c r="C40">
-        <v>0.02131544878382347</v>
+        <v>-0.04531374430631682</v>
       </c>
       <c r="D40">
-        <v>0.06049655483082636</v>
+        <v>-0.0214718669666684</v>
       </c>
       <c r="E40">
-        <v>-0.03095516847723613</v>
+        <v>0.02747797899284286</v>
       </c>
       <c r="F40">
-        <v>-0.1101467363119308</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.09663125682972537</v>
+      </c>
+      <c r="G40">
+        <v>-0.02684058219544339</v>
+      </c>
+      <c r="H40">
+        <v>-0.03457144803700877</v>
+      </c>
+      <c r="I40">
+        <v>0.1103248596491002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.003799443304402018</v>
+        <v>0.004641691051872083</v>
       </c>
       <c r="C41">
-        <v>0.02354685578329276</v>
+        <v>-0.01169198007857188</v>
       </c>
       <c r="D41">
-        <v>0.02919207240833084</v>
+        <v>-0.0004768066665192321</v>
       </c>
       <c r="E41">
-        <v>0.006888556468588197</v>
+        <v>0.01048800133996952</v>
       </c>
       <c r="F41">
-        <v>0.008673686586467269</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.0106043117262873</v>
+      </c>
+      <c r="G41">
+        <v>-0.04300894307554814</v>
+      </c>
+      <c r="H41">
+        <v>-0.04224277838332492</v>
+      </c>
+      <c r="I41">
+        <v>0.0114522511444323</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>-0.2024042958758752</v>
+        <v>0.2222306295344133</v>
       </c>
       <c r="C42">
-        <v>0.4757471391341133</v>
+        <v>-0.2502372601362442</v>
       </c>
       <c r="D42">
-        <v>-0.7743892188463865</v>
+        <v>-0.05340205305849441</v>
       </c>
       <c r="E42">
-        <v>-0.2881795827179153</v>
+        <v>-0.9107682405397254</v>
       </c>
       <c r="F42">
-        <v>0.04075961218278776</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.1566972086092361</v>
+      </c>
+      <c r="G42">
+        <v>0.00881279785039138</v>
+      </c>
+      <c r="H42">
+        <v>0.004454137143616983</v>
+      </c>
+      <c r="I42">
+        <v>0.06025254955299279</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.006863535890508112</v>
+        <v>0.008915106221526298</v>
       </c>
       <c r="C43">
-        <v>0.02584972722598415</v>
+        <v>-0.01364356298437756</v>
       </c>
       <c r="D43">
-        <v>0.03150278605353581</v>
+        <v>-0.00331182421588329</v>
       </c>
       <c r="E43">
-        <v>0.00291089246418333</v>
+        <v>0.009538527212666351</v>
       </c>
       <c r="F43">
-        <v>-0.02133005560424042</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.02420534008468489</v>
+      </c>
+      <c r="G43">
+        <v>-0.03156170242434812</v>
+      </c>
+      <c r="H43">
+        <v>-0.02527404448217194</v>
+      </c>
+      <c r="I43">
+        <v>0.0214898944274306</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.04569682986971375</v>
+        <v>0.02968051340691089</v>
       </c>
       <c r="C44">
-        <v>0.04828756413718115</v>
+        <v>-0.04354693713085592</v>
       </c>
       <c r="D44">
-        <v>0.04403638758313655</v>
+        <v>0.0009688717869928629</v>
       </c>
       <c r="E44">
-        <v>-0.00364697086897624</v>
+        <v>0.01695679437987957</v>
       </c>
       <c r="F44">
-        <v>-0.110696035778576</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.1181052562266674</v>
+      </c>
+      <c r="G44">
+        <v>-0.08183205738025745</v>
+      </c>
+      <c r="H44">
+        <v>-0.06082840641725764</v>
+      </c>
+      <c r="I44">
+        <v>0.05300544349628443</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.03342730849748084</v>
+        <v>0.02658544845594888</v>
       </c>
       <c r="C46">
-        <v>0.02245133369816702</v>
+        <v>-0.03544299489026647</v>
       </c>
       <c r="D46">
-        <v>0.03907587305916121</v>
+        <v>-0.00476102911274518</v>
       </c>
       <c r="E46">
-        <v>0.001005421972230454</v>
+        <v>0.03168809807528795</v>
       </c>
       <c r="F46">
-        <v>-0.01500311271892728</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.04361665670560957</v>
+      </c>
+      <c r="G46">
+        <v>-0.05729613597674646</v>
+      </c>
+      <c r="H46">
+        <v>-0.02183100782971152</v>
+      </c>
+      <c r="I46">
+        <v>0.007702667452951708</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.09565528691706009</v>
+        <v>0.08740025174407529</v>
       </c>
       <c r="C47">
-        <v>0.0098679723977833</v>
+        <v>-0.01992935213322086</v>
       </c>
       <c r="D47">
-        <v>0.02792472197284365</v>
+        <v>-0.00517540698353142</v>
       </c>
       <c r="E47">
-        <v>0.001837549852022679</v>
+        <v>0.02828349884143036</v>
       </c>
       <c r="F47">
-        <v>0.02893105261163732</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.0174987226000704</v>
+      </c>
+      <c r="G47">
+        <v>-0.05855637926258224</v>
+      </c>
+      <c r="H47">
+        <v>-0.03353020042816244</v>
+      </c>
+      <c r="I47">
+        <v>0.03389804593095933</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.0215277301407558</v>
+        <v>0.02108597005128876</v>
       </c>
       <c r="C48">
-        <v>0.02147925959464611</v>
+        <v>-0.01833153775132131</v>
       </c>
       <c r="D48">
-        <v>0.02547009973773597</v>
+        <v>0.000495696402709038</v>
       </c>
       <c r="E48">
-        <v>0.0006821752899929896</v>
+        <v>0.0147971241320438</v>
       </c>
       <c r="F48">
-        <v>-0.02079162993059319</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.02587689309216404</v>
+      </c>
+      <c r="G48">
+        <v>-0.02429354879510628</v>
+      </c>
+      <c r="H48">
+        <v>-0.01911326828182631</v>
+      </c>
+      <c r="I48">
+        <v>0.009915892381166712</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.09309658174179279</v>
+        <v>0.08872323685730715</v>
       </c>
       <c r="C50">
-        <v>0.02936194975506872</v>
+        <v>-0.04126884620642327</v>
       </c>
       <c r="D50">
-        <v>0.0331914697975556</v>
+        <v>0.009258167893149455</v>
       </c>
       <c r="E50">
-        <v>-0.006322910766949057</v>
+        <v>0.02689705747572554</v>
       </c>
       <c r="F50">
-        <v>0.03052932721457631</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.01140372037840185</v>
+      </c>
+      <c r="G50">
+        <v>-0.03818054355822608</v>
+      </c>
+      <c r="H50">
+        <v>0.006355023897163082</v>
+      </c>
+      <c r="I50">
+        <v>-0.006477069142043617</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.05711156541386966</v>
+        <v>0.0396379988818604</v>
       </c>
       <c r="C51">
-        <v>-0.01476307585610307</v>
+        <v>0.004095488410494555</v>
       </c>
       <c r="D51">
-        <v>0.02820185164968762</v>
+        <v>-0.01042382863624147</v>
       </c>
       <c r="E51">
-        <v>-0.02885561531752311</v>
+        <v>0.01412914325396964</v>
       </c>
       <c r="F51">
-        <v>-0.06464722184224814</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.09191019149426252</v>
+      </c>
+      <c r="G51">
+        <v>-0.0616592161049824</v>
+      </c>
+      <c r="H51">
+        <v>-0.05784744695611065</v>
+      </c>
+      <c r="I51">
+        <v>0.02940372462811891</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1346491488166367</v>
+        <v>0.124479653761752</v>
       </c>
       <c r="C53">
-        <v>0.009269400033849155</v>
+        <v>-0.0366243538020067</v>
       </c>
       <c r="D53">
-        <v>0.05737266748796185</v>
+        <v>-0.006570177843530474</v>
       </c>
       <c r="E53">
-        <v>-0.004664407184677259</v>
+        <v>0.05444333831023803</v>
       </c>
       <c r="F53">
-        <v>0.06273796073817613</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.0479275524807616</v>
+      </c>
+      <c r="G53">
+        <v>-0.006464750542104117</v>
+      </c>
+      <c r="H53">
+        <v>-0.02959701087098567</v>
+      </c>
+      <c r="I53">
+        <v>0.03785107157533847</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.02893655442516477</v>
+        <v>0.02637437122217895</v>
       </c>
       <c r="C54">
-        <v>0.00493725710451955</v>
+        <v>-0.008422682437680616</v>
       </c>
       <c r="D54">
-        <v>0.0331041251531501</v>
+        <v>0.004377210777388568</v>
       </c>
       <c r="E54">
-        <v>0.008481157633852427</v>
+        <v>0.03086819929115974</v>
       </c>
       <c r="F54">
-        <v>-0.02126427566205259</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.03050216923098592</v>
+      </c>
+      <c r="G54">
+        <v>-0.0525502252910838</v>
+      </c>
+      <c r="H54">
+        <v>-0.03735874457400867</v>
+      </c>
+      <c r="I54">
+        <v>0.0008863943966933421</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1063326253580237</v>
+        <v>0.09742404754927825</v>
       </c>
       <c r="C55">
-        <v>-0.007901369296178852</v>
+        <v>-0.03171381381179299</v>
       </c>
       <c r="D55">
-        <v>0.02999395710879017</v>
+        <v>0.0119050871643717</v>
       </c>
       <c r="E55">
-        <v>0.04388533070272194</v>
+        <v>0.03880298432551633</v>
       </c>
       <c r="F55">
-        <v>0.02628139114394725</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.03666841928880317</v>
+      </c>
+      <c r="G55">
+        <v>-0.02342723435366891</v>
+      </c>
+      <c r="H55">
+        <v>0.008774363029875569</v>
+      </c>
+      <c r="I55">
+        <v>0.0190074687677008</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1677639984396513</v>
+        <v>0.1628930874044535</v>
       </c>
       <c r="C56">
-        <v>-0.04269970339078923</v>
+        <v>-0.01998661963813348</v>
       </c>
       <c r="D56">
-        <v>0.07727436417952274</v>
+        <v>-0.002578977060846711</v>
       </c>
       <c r="E56">
-        <v>0.03046941194508089</v>
+        <v>0.08634112352977656</v>
       </c>
       <c r="F56">
-        <v>0.1031187634654121</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.091808277775906</v>
+      </c>
+      <c r="G56">
+        <v>0.03475951877864613</v>
+      </c>
+      <c r="H56">
+        <v>0.01484696564618365</v>
+      </c>
+      <c r="I56">
+        <v>0.04171716412745884</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>-0.08674956152789678</v>
+        <v>0.06705316048926144</v>
       </c>
       <c r="C57">
-        <v>0.02722102086824287</v>
+        <v>-0.03352881158454229</v>
       </c>
       <c r="D57">
-        <v>0.03526890732210883</v>
+        <v>-0.02188834876728217</v>
       </c>
       <c r="E57">
-        <v>-0.03098618836965554</v>
+        <v>0.004011822740762148</v>
       </c>
       <c r="F57">
-        <v>-0.05063764210930608</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.07028389715587371</v>
+      </c>
+      <c r="G57">
+        <v>-0.01449983032022197</v>
+      </c>
+      <c r="H57">
+        <v>-0.01784707549465418</v>
+      </c>
+      <c r="I57">
+        <v>0.02959422888527953</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.2009745338052438</v>
+        <v>0.2069882023207051</v>
       </c>
       <c r="C58">
-        <v>0.05358954854039123</v>
+        <v>-0.1011766377843058</v>
       </c>
       <c r="D58">
-        <v>0.05219150866010656</v>
+        <v>-0.09707419324874823</v>
       </c>
       <c r="E58">
-        <v>-0.04885672609240605</v>
+        <v>-0.02253309803539703</v>
       </c>
       <c r="F58">
-        <v>-0.1294616656496836</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.2814511320201669</v>
+      </c>
+      <c r="G58">
+        <v>-0.4036241537623851</v>
+      </c>
+      <c r="H58">
+        <v>0.3164152770781459</v>
+      </c>
+      <c r="I58">
+        <v>-0.692586496957914</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.02534077586223207</v>
+        <v>0.05026844581057199</v>
       </c>
       <c r="C59">
-        <v>-0.1899206776551725</v>
+        <v>0.2046568574647122</v>
       </c>
       <c r="D59">
-        <v>-0.0582614407135045</v>
+        <v>-0.01502756210970661</v>
       </c>
       <c r="E59">
-        <v>-0.02378368872438899</v>
+        <v>-0.0174004485953534</v>
       </c>
       <c r="F59">
-        <v>-0.05590343374508742</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.06988974773974163</v>
+      </c>
+      <c r="G59">
+        <v>0.004451392225352121</v>
+      </c>
+      <c r="H59">
+        <v>-0.01557350100159569</v>
+      </c>
+      <c r="I59">
+        <v>0.01488344621478856</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1804330502369353</v>
+        <v>0.1939447949451143</v>
       </c>
       <c r="C60">
-        <v>-0.07502182890678559</v>
+        <v>0.05219736985509182</v>
       </c>
       <c r="D60">
-        <v>0.02300787971053628</v>
+        <v>-0.04808343915946272</v>
       </c>
       <c r="E60">
-        <v>-0.06611639594335433</v>
+        <v>0.01461719412805834</v>
       </c>
       <c r="F60">
-        <v>-0.1896947656351876</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.1982612391564774</v>
+      </c>
+      <c r="G60">
+        <v>0.3394869532305307</v>
+      </c>
+      <c r="H60">
+        <v>0.01613728092490361</v>
+      </c>
+      <c r="I60">
+        <v>-0.0279306002509155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.04381943037158225</v>
+        <v>0.04005836867668606</v>
       </c>
       <c r="C61">
-        <v>0.01502843044189514</v>
+        <v>-0.03446555187427433</v>
       </c>
       <c r="D61">
-        <v>0.01289071070472455</v>
+        <v>0.001267769830025877</v>
       </c>
       <c r="E61">
-        <v>0.005395077013507008</v>
+        <v>0.01202761253602373</v>
       </c>
       <c r="F61">
-        <v>-0.03228058427226026</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.03563483301635024</v>
+      </c>
+      <c r="G61">
+        <v>0.009923621890973859</v>
+      </c>
+      <c r="H61">
+        <v>-0.01186197120946725</v>
+      </c>
+      <c r="I61">
+        <v>-0.002860171938362596</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.04237730204778243</v>
+        <v>0.0309793440583045</v>
       </c>
       <c r="C63">
-        <v>0.01015657313752191</v>
+        <v>-0.02431829135502775</v>
       </c>
       <c r="D63">
-        <v>0.0308191895556653</v>
+        <v>-0.001684554797805259</v>
       </c>
       <c r="E63">
-        <v>-0.00237522855334539</v>
+        <v>0.01902625457401734</v>
       </c>
       <c r="F63">
-        <v>-0.03377910212667946</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.02925505015518912</v>
+      </c>
+      <c r="G63">
+        <v>-0.04882525079614428</v>
+      </c>
+      <c r="H63">
+        <v>-0.007613563353251444</v>
+      </c>
+      <c r="I63">
+        <v>0.0324693643289649</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.06237580937331531</v>
+        <v>0.05640699431791923</v>
       </c>
       <c r="C64">
-        <v>0.02831378862035478</v>
+        <v>-0.0347861665639586</v>
       </c>
       <c r="D64">
-        <v>0.02693873759248936</v>
+        <v>0.009752754115070449</v>
       </c>
       <c r="E64">
-        <v>0.03018591775485808</v>
+        <v>0.02052361803915879</v>
       </c>
       <c r="F64">
-        <v>-0.02987676385077787</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.03788211319060875</v>
+      </c>
+      <c r="G64">
+        <v>-0.02433026118079244</v>
+      </c>
+      <c r="H64">
+        <v>-0.06108087697071959</v>
+      </c>
+      <c r="I64">
+        <v>0.03695742704688113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.02662530058482515</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.01060024229038684</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.005376398849593523</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.008447542867149086</v>
       </c>
       <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.003430504780959852</v>
+      </c>
+      <c r="G65">
+        <v>0.0234434411699208</v>
+      </c>
+      <c r="H65">
+        <v>0.01740348352883467</v>
+      </c>
+      <c r="I65">
+        <v>-0.003195266946972198</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.07841256338167178</v>
+        <v>0.06764451206000385</v>
       </c>
       <c r="C66">
-        <v>0.03100127045274712</v>
+        <v>-0.05755192033804009</v>
       </c>
       <c r="D66">
-        <v>0.05206453865885021</v>
+        <v>-0.01357117675601744</v>
       </c>
       <c r="E66">
-        <v>0.003073549213233596</v>
+        <v>0.04786736503614643</v>
       </c>
       <c r="F66">
-        <v>-0.07261780817991925</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.06665500690037518</v>
+      </c>
+      <c r="G66">
+        <v>0.0117343791892102</v>
+      </c>
+      <c r="H66">
+        <v>-0.009169776321012471</v>
+      </c>
+      <c r="I66">
+        <v>0.04215386594631211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.05382947611044086</v>
+        <v>0.04830587858316214</v>
       </c>
       <c r="C67">
-        <v>-0.0117061595577906</v>
+        <v>0.003049010672372398</v>
       </c>
       <c r="D67">
-        <v>0.001765209869271967</v>
+        <v>-0.001416122868848951</v>
       </c>
       <c r="E67">
-        <v>0.006091621122025754</v>
+        <v>0.008266615930447554</v>
       </c>
       <c r="F67">
-        <v>-0.01916956455513718</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.03774958178910046</v>
+      </c>
+      <c r="G67">
+        <v>-0.001364939645611301</v>
+      </c>
+      <c r="H67">
+        <v>-0.0360016924679487</v>
+      </c>
+      <c r="I67">
+        <v>-0.02419317326112376</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.04334971693186341</v>
+        <v>0.06097088040115504</v>
       </c>
       <c r="C68">
-        <v>-0.2247123395843338</v>
+        <v>0.2368605396233439</v>
       </c>
       <c r="D68">
-        <v>-0.09136758508032256</v>
+        <v>-0.01373568325575384</v>
       </c>
       <c r="E68">
-        <v>-0.0329983271712814</v>
+        <v>-0.03618239415842557</v>
       </c>
       <c r="F68">
-        <v>-0.05281461526960855</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.04937930682381329</v>
+      </c>
+      <c r="G68">
+        <v>-0.02049626748526629</v>
+      </c>
+      <c r="H68">
+        <v>0.002101060279743249</v>
+      </c>
+      <c r="I68">
+        <v>0.03646201577887846</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.08029812046096163</v>
+        <v>0.07230832257992736</v>
       </c>
       <c r="C69">
-        <v>0.002110519275918738</v>
+        <v>-0.02072875121700452</v>
       </c>
       <c r="D69">
-        <v>0.0274708494775582</v>
+        <v>-0.006755298995212763</v>
       </c>
       <c r="E69">
-        <v>0.0001297095189267915</v>
+        <v>0.03088831709581412</v>
       </c>
       <c r="F69">
-        <v>0.01811927800039584</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.005127767124601774</v>
+      </c>
+      <c r="G69">
+        <v>-0.0370727261081406</v>
+      </c>
+      <c r="H69">
+        <v>-0.02691852220382929</v>
+      </c>
+      <c r="I69">
+        <v>0.01687724075690239</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.03949051232434606</v>
+        <v>0.05771209949576941</v>
       </c>
       <c r="C71">
-        <v>-0.2761254566093835</v>
+        <v>0.261937419637997</v>
       </c>
       <c r="D71">
-        <v>-0.09750932067312369</v>
+        <v>-0.01597950087793216</v>
       </c>
       <c r="E71">
-        <v>-0.06516485363765347</v>
+        <v>-0.05401783075037871</v>
       </c>
       <c r="F71">
-        <v>-0.08292988357273698</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.06982445414755277</v>
+      </c>
+      <c r="G71">
+        <v>-0.02472985594725905</v>
+      </c>
+      <c r="H71">
+        <v>-0.02373240958110139</v>
+      </c>
+      <c r="I71">
+        <v>0.03692927139978185</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1292008866124677</v>
+        <v>0.1263563638901299</v>
       </c>
       <c r="C72">
-        <v>-0.02680602812888914</v>
+        <v>-0.03814077205452682</v>
       </c>
       <c r="D72">
-        <v>0.05459222233148689</v>
+        <v>-0.009788706261469387</v>
       </c>
       <c r="E72">
-        <v>0.004826203848842197</v>
+        <v>0.07601777562280243</v>
       </c>
       <c r="F72">
-        <v>-0.07378256352352383</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.08242949670123642</v>
+      </c>
+      <c r="G72">
+        <v>0.03885546580820291</v>
+      </c>
+      <c r="H72">
+        <v>0.0467847072061708</v>
+      </c>
+      <c r="I72">
+        <v>-0.1138106839763768</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.2727412552770297</v>
+        <v>0.2707233197086157</v>
       </c>
       <c r="C73">
-        <v>-0.1429019296490361</v>
+        <v>0.077674188745842</v>
       </c>
       <c r="D73">
-        <v>-0.03018031856961027</v>
+        <v>-0.08570839529342114</v>
       </c>
       <c r="E73">
-        <v>-0.09994838423601682</v>
+        <v>-0.03373512265677693</v>
       </c>
       <c r="F73">
-        <v>-0.3247822884390661</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.2933900603542923</v>
+      </c>
+      <c r="G73">
+        <v>0.5195322097866832</v>
+      </c>
+      <c r="H73">
+        <v>0.09016074577182843</v>
+      </c>
+      <c r="I73">
+        <v>-0.1042129088920911</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1500582683327794</v>
+        <v>0.1482177554896431</v>
       </c>
       <c r="C74">
-        <v>-0.006964129892219346</v>
+        <v>-0.03307907000153287</v>
       </c>
       <c r="D74">
-        <v>0.04252901667592415</v>
+        <v>-0.01183349968312339</v>
       </c>
       <c r="E74">
-        <v>-0.0006382054320246195</v>
+        <v>0.05248872417027298</v>
       </c>
       <c r="F74">
-        <v>0.04971505943649145</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.06948936568883529</v>
+      </c>
+      <c r="G74">
+        <v>0.02858706470307881</v>
+      </c>
+      <c r="H74">
+        <v>0.01722438369878553</v>
+      </c>
+      <c r="I74">
+        <v>0.07601214293715237</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2253793214124161</v>
+        <v>0.2480784150757694</v>
       </c>
       <c r="C75">
-        <v>-0.03209812663346182</v>
+        <v>-0.0222587181570286</v>
       </c>
       <c r="D75">
-        <v>0.08874882676780348</v>
+        <v>-0.02948638264124132</v>
       </c>
       <c r="E75">
-        <v>-0.005578147875003492</v>
+        <v>0.1160977594533792</v>
       </c>
       <c r="F75">
-        <v>0.1439464809399621</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1468014833217722</v>
+      </c>
+      <c r="G75">
+        <v>0.01654336029817529</v>
+      </c>
+      <c r="H75">
+        <v>-0.01319393850389841</v>
+      </c>
+      <c r="I75">
+        <v>0.04002281345483818</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.2489608264008731</v>
+        <v>0.2617002161155146</v>
       </c>
       <c r="C76">
-        <v>-0.06602099439722413</v>
+        <v>-0.01349206340955889</v>
       </c>
       <c r="D76">
-        <v>0.08494685021711032</v>
+        <v>0.009283645326314836</v>
       </c>
       <c r="E76">
-        <v>0.06388268226593084</v>
+        <v>0.1366614520453351</v>
       </c>
       <c r="F76">
-        <v>0.1358360402053012</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1826117187618969</v>
+      </c>
+      <c r="G76">
+        <v>0.02636971355989454</v>
+      </c>
+      <c r="H76">
+        <v>0.07053546364520083</v>
+      </c>
+      <c r="I76">
+        <v>0.05462648727497755</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.1385851857794629</v>
+        <v>0.1184063291932984</v>
       </c>
       <c r="C77">
-        <v>0.06420873097779295</v>
+        <v>-0.07513748922596142</v>
       </c>
       <c r="D77">
-        <v>0.01038006472943133</v>
+        <v>-0.009842221615950011</v>
       </c>
       <c r="E77">
-        <v>-0.01318626579394729</v>
+        <v>-0.03671912011580466</v>
       </c>
       <c r="F77">
-        <v>-0.1553636811807321</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.1621502437617445</v>
+      </c>
+      <c r="G77">
+        <v>-0.212404787520286</v>
+      </c>
+      <c r="H77">
+        <v>-0.0009907897301213932</v>
+      </c>
+      <c r="I77">
+        <v>0.2452138074856051</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.09484991857646717</v>
+        <v>0.07307422945943717</v>
       </c>
       <c r="C78">
-        <v>0.07840507067148619</v>
+        <v>-0.07664887281983772</v>
       </c>
       <c r="D78">
-        <v>0.01967615033207727</v>
+        <v>0.003758066505879075</v>
       </c>
       <c r="E78">
-        <v>0.01051921551723317</v>
+        <v>0.009402069709383553</v>
       </c>
       <c r="F78">
-        <v>-0.05159478992622075</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.07002177179958326</v>
+      </c>
+      <c r="G78">
+        <v>-0.01273005931437027</v>
+      </c>
+      <c r="H78">
+        <v>-0.01969683158070053</v>
+      </c>
+      <c r="I78">
+        <v>0.04572513874267809</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.1064650938663077</v>
+        <v>0.140046179240824</v>
       </c>
       <c r="C80">
-        <v>0.01761653611333963</v>
+        <v>0.02749757016477628</v>
       </c>
       <c r="D80">
-        <v>-0.322773876489535</v>
+        <v>0.9758139200842156</v>
       </c>
       <c r="E80">
-        <v>0.9150147064216158</v>
+        <v>-0.05064990141192284</v>
       </c>
       <c r="F80">
-        <v>-0.06755983084338434</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.04488201102782909</v>
+      </c>
+      <c r="G80">
+        <v>0.03295368017185126</v>
+      </c>
+      <c r="H80">
+        <v>-0.02956167459818696</v>
+      </c>
+      <c r="I80">
+        <v>-0.09784603155604578</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1579662975910264</v>
+        <v>0.182324913139147</v>
       </c>
       <c r="C81">
-        <v>-0.02278832079446396</v>
+        <v>-0.009328245536893565</v>
       </c>
       <c r="D81">
-        <v>0.04618132078036447</v>
+        <v>-0.008307676922544492</v>
       </c>
       <c r="E81">
-        <v>0.008619157274717586</v>
+        <v>0.08636192074932925</v>
       </c>
       <c r="F81">
-        <v>0.1870731125681165</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.162046801097</v>
+      </c>
+      <c r="G81">
+        <v>-0.01521545509124284</v>
+      </c>
+      <c r="H81">
+        <v>0.02034657197577912</v>
+      </c>
+      <c r="I81">
+        <v>0.0109096945956162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.09401962209253531</v>
+        <v>0.07048023038766729</v>
       </c>
       <c r="C83">
-        <v>0.08325761943391816</v>
+        <v>-0.05676242299140503</v>
       </c>
       <c r="D83">
-        <v>0.009190847620199323</v>
+        <v>-0.01293612013271551</v>
       </c>
       <c r="E83">
-        <v>-0.02358026766820783</v>
+        <v>-0.01856738567402514</v>
       </c>
       <c r="F83">
-        <v>-0.01731320482672732</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.04891254641134294</v>
+      </c>
+      <c r="G83">
+        <v>-0.03629231441076596</v>
+      </c>
+      <c r="H83">
+        <v>-0.06266125880293787</v>
+      </c>
+      <c r="I83">
+        <v>0.03779254788878892</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.2353520107071649</v>
+        <v>0.2498598119848946</v>
       </c>
       <c r="C85">
-        <v>0.007565312229988633</v>
+        <v>-0.05370610341180224</v>
       </c>
       <c r="D85">
-        <v>0.08001891941254308</v>
+        <v>-0.00991724768864863</v>
       </c>
       <c r="E85">
-        <v>0.05875572920507017</v>
+        <v>0.1130013536245707</v>
       </c>
       <c r="F85">
-        <v>0.1565406697185085</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1850061417842436</v>
+      </c>
+      <c r="G85">
+        <v>-0.01783243415899355</v>
+      </c>
+      <c r="H85">
+        <v>0.02239495553823458</v>
+      </c>
+      <c r="I85">
+        <v>0.06918391248477211</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.04244120341621686</v>
+        <v>0.02982435045863246</v>
       </c>
       <c r="C86">
-        <v>0.04891797481929199</v>
+        <v>-0.0546234765568756</v>
       </c>
       <c r="D86">
-        <v>0.0377022230353033</v>
+        <v>-0.003601941364920527</v>
       </c>
       <c r="E86">
-        <v>-0.004829550767077886</v>
+        <v>0.01694462800462111</v>
       </c>
       <c r="F86">
-        <v>-0.07071667643169009</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.08031995209133187</v>
+      </c>
+      <c r="G86">
+        <v>-0.0555896027935724</v>
+      </c>
+      <c r="H86">
+        <v>-0.01232482938831657</v>
+      </c>
+      <c r="I86">
+        <v>0.05751179742955385</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.01962461231680397</v>
+        <v>0.02733780396323056</v>
       </c>
       <c r="C87">
-        <v>-0.03276759484142313</v>
+        <v>0.004448409979648764</v>
       </c>
       <c r="D87">
-        <v>-0.01583353341177009</v>
+        <v>0.004288158029363367</v>
       </c>
       <c r="E87">
-        <v>-0.005363032055376804</v>
+        <v>-0.004477408131900362</v>
       </c>
       <c r="F87">
-        <v>-0.09490045632004225</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.1033559710574126</v>
+      </c>
+      <c r="G87">
+        <v>-0.02745738620534445</v>
+      </c>
+      <c r="H87">
+        <v>0.01124792824525141</v>
+      </c>
+      <c r="I87">
+        <v>0.03556542076681113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.03199551262450233</v>
+        <v>0.03667375209846238</v>
       </c>
       <c r="C88">
-        <v>0.0184080499682313</v>
+        <v>-0.009284062808960519</v>
       </c>
       <c r="D88">
-        <v>0.01602473899674942</v>
+        <v>0.005863333403425358</v>
       </c>
       <c r="E88">
-        <v>0.02622868471118664</v>
+        <v>0.009697510999544903</v>
       </c>
       <c r="F88">
-        <v>0.02728190933147435</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01848259832533398</v>
+      </c>
+      <c r="G88">
+        <v>-0.02350850367003638</v>
+      </c>
+      <c r="H88">
+        <v>-0.04885625504076985</v>
+      </c>
+      <c r="I88">
+        <v>0.0005812893275511379</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.05515363693729859</v>
+        <v>0.09167643705247659</v>
       </c>
       <c r="C89">
-        <v>-0.3296347332153421</v>
+        <v>0.3834144316829197</v>
       </c>
       <c r="D89">
-        <v>-0.1789095767296239</v>
+        <v>-0.04104835329081431</v>
       </c>
       <c r="E89">
-        <v>-0.08889356139332744</v>
+        <v>-0.06966948840753125</v>
       </c>
       <c r="F89">
-        <v>-0.03480512095142722</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.04582958393021437</v>
+      </c>
+      <c r="G89">
+        <v>-0.08322757960854073</v>
+      </c>
+      <c r="H89">
+        <v>-0.04438321918692036</v>
+      </c>
+      <c r="I89">
+        <v>0.08379203078123357</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.03899995400146427</v>
+        <v>0.058300075026571</v>
       </c>
       <c r="C90">
-        <v>-0.2856005463851312</v>
+        <v>0.3330125609995496</v>
       </c>
       <c r="D90">
-        <v>-0.1513590801369992</v>
+        <v>-0.01645790937195039</v>
       </c>
       <c r="E90">
-        <v>-0.02603134275689345</v>
+        <v>-0.06592033913780283</v>
       </c>
       <c r="F90">
-        <v>-0.06763470553194463</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.0384726229451415</v>
+      </c>
+      <c r="G90">
+        <v>-0.05177120969489141</v>
+      </c>
+      <c r="H90">
+        <v>-0.01972960869489762</v>
+      </c>
+      <c r="I90">
+        <v>0.05987415731745917</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.2681179072855985</v>
+        <v>0.2854394601514165</v>
       </c>
       <c r="C91">
-        <v>0.003044643740567557</v>
+        <v>-0.05464113378380638</v>
       </c>
       <c r="D91">
-        <v>0.07888514107077745</v>
+        <v>-0.0189899504230967</v>
       </c>
       <c r="E91">
-        <v>0.03803395743976137</v>
+        <v>0.1069052583186889</v>
       </c>
       <c r="F91">
-        <v>0.2746964080639765</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.2711063346427504</v>
+      </c>
+      <c r="G91">
+        <v>-0.003279707753321876</v>
+      </c>
+      <c r="H91">
+        <v>0.05162595263602397</v>
+      </c>
+      <c r="I91">
+        <v>0.06064875795496184</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.07273781548730235</v>
+        <v>0.1282801485672946</v>
       </c>
       <c r="C92">
-        <v>-0.299776615659831</v>
+        <v>0.3773500297017219</v>
       </c>
       <c r="D92">
-        <v>-0.2319129979180573</v>
+        <v>-0.003020243050365317</v>
       </c>
       <c r="E92">
-        <v>-0.0217124357881295</v>
+        <v>-0.09516878429835908</v>
       </c>
       <c r="F92">
-        <v>0.09658983140932244</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.1153997697584754</v>
+      </c>
+      <c r="G92">
+        <v>-0.3289266795834561</v>
+      </c>
+      <c r="H92">
+        <v>-0.00642927150104806</v>
+      </c>
+      <c r="I92">
+        <v>-0.0901166070763882</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.03536402081566973</v>
+        <v>0.0754137567316398</v>
       </c>
       <c r="C93">
-        <v>-0.3368572268705602</v>
+        <v>0.3987807120297385</v>
       </c>
       <c r="D93">
-        <v>-0.1971368611388747</v>
+        <v>-0.03061517784541265</v>
       </c>
       <c r="E93">
-        <v>-0.04728891377411502</v>
+        <v>-0.1055541727141762</v>
       </c>
       <c r="F93">
-        <v>0.004944458663080288</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.0003118329422683295</v>
+      </c>
+      <c r="G93">
+        <v>-0.02386901602025438</v>
+      </c>
+      <c r="H93">
+        <v>-0.05585956016238261</v>
+      </c>
+      <c r="I93">
+        <v>0.001595901456159515</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2817556162334737</v>
+        <v>0.3113102846839776</v>
       </c>
       <c r="C94">
-        <v>-0.1092148517683935</v>
+        <v>0.03753979395853031</v>
       </c>
       <c r="D94">
-        <v>0.001052327194679893</v>
+        <v>-0.04632310049618192</v>
       </c>
       <c r="E94">
-        <v>-0.0008661815434768927</v>
+        <v>0.1092840640553279</v>
       </c>
       <c r="F94">
-        <v>0.333182004928291</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.3117963153637118</v>
+      </c>
+      <c r="G94">
+        <v>-0.09406579783120778</v>
+      </c>
+      <c r="H94">
+        <v>0.2012605348658541</v>
+      </c>
+      <c r="I94">
+        <v>0.01995108981662658</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.1701924404993111</v>
+        <v>0.1326651512821002</v>
       </c>
       <c r="C95">
-        <v>0.05925161835696871</v>
+        <v>-0.05439657375412224</v>
       </c>
       <c r="D95">
-        <v>0.01893550884155214</v>
+        <v>-0.0847323716459271</v>
       </c>
       <c r="E95">
-        <v>-0.08872107377559893</v>
+        <v>0.02814251591475334</v>
       </c>
       <c r="F95">
-        <v>0.3970191450549442</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.1051501424889794</v>
+      </c>
+      <c r="G95">
+        <v>0.002334681733395089</v>
+      </c>
+      <c r="H95">
+        <v>-0.8741596736178929</v>
+      </c>
+      <c r="I95">
+        <v>-0.3613294716727135</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.2063200484118481</v>
+        <v>0.2083351675109465</v>
       </c>
       <c r="C98">
-        <v>-0.09034839351028789</v>
+        <v>0.06503912777041854</v>
       </c>
       <c r="D98">
-        <v>-0.01955812128460007</v>
+        <v>-0.06125027228079741</v>
       </c>
       <c r="E98">
-        <v>-0.08226107646525864</v>
+        <v>-0.02455980693600577</v>
       </c>
       <c r="F98">
-        <v>-0.09287344048269713</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.1679799719599192</v>
+      </c>
+      <c r="G98">
+        <v>0.3498459336460658</v>
+      </c>
+      <c r="H98">
+        <v>0.03220672911400767</v>
+      </c>
+      <c r="I98">
+        <v>-0.1090226067810234</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.03194423821770222</v>
+        <v>0.01859025690310838</v>
       </c>
       <c r="C101">
-        <v>0.01966197337433436</v>
+        <v>-0.03246816727647262</v>
       </c>
       <c r="D101">
-        <v>0.03781316305597313</v>
+        <v>0.003944918946332366</v>
       </c>
       <c r="E101">
-        <v>0.01748899152555964</v>
+        <v>0.0372748954907826</v>
       </c>
       <c r="F101">
-        <v>-0.02062960792748687</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.06491891641087102</v>
+      </c>
+      <c r="G101">
+        <v>-0.1115149571067938</v>
+      </c>
+      <c r="H101">
+        <v>0.01589627445239688</v>
+      </c>
+      <c r="I101">
+        <v>-0.1177890006420934</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.09911615653927346</v>
+        <v>0.1169870380938152</v>
       </c>
       <c r="C102">
-        <v>0.01508344271175528</v>
+        <v>-0.02602379078512036</v>
       </c>
       <c r="D102">
-        <v>0.04696541907732612</v>
+        <v>0.003530859578847384</v>
       </c>
       <c r="E102">
-        <v>0.03943256692177511</v>
+        <v>0.05213111865337606</v>
       </c>
       <c r="F102">
-        <v>0.1057233721113618</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.1177588235921962</v>
+      </c>
+      <c r="G102">
+        <v>-0.008693162648313565</v>
+      </c>
+      <c r="H102">
+        <v>-0.001382783650050382</v>
+      </c>
+      <c r="I102">
+        <v>0.05284358674363734</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>-0.02042403188334301</v>
+        <v>0.02915448645344129</v>
       </c>
       <c r="C103">
-        <v>0.007120341566090376</v>
+        <v>-0.01008971114888122</v>
       </c>
       <c r="D103">
-        <v>0.01775053182495693</v>
+        <v>0.00822328626238468</v>
       </c>
       <c r="E103">
-        <v>0.0059418026204366</v>
+        <v>0.0195479044669601</v>
       </c>
       <c r="F103">
-        <v>0.03356530597525856</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.02586290104803383</v>
+      </c>
+      <c r="G103">
+        <v>-0.01728298512633075</v>
+      </c>
+      <c r="H103">
+        <v>-0.009088998067275924</v>
+      </c>
+      <c r="I103">
+        <v>0.01298279826496072</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
